--- a/config_6.8/super_treasure_server.xlsx
+++ b/config_6.8/super_treasure_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -48,12 +48,12 @@
     <t>4,10,16,22</t>
   </si>
   <si>
+    <t>prop_any_dice_1</t>
+  </si>
+  <si>
     <t>prop_any_dice_2</t>
   </si>
   <si>
-    <t>prop_any_dice_1</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>15</t>
     </r>
     <r>
@@ -168,6 +174,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>4</t>
     </r>
     <r>
@@ -219,10 +231,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -240,17 +252,33 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,8 +290,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,17 +313,48 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -306,55 +373,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,17 +388,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,13 +404,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,169 +548,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,35 +609,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,6 +648,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -671,6 +689,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -679,21 +706,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -702,10 +714,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -714,133 +726,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1172,8 +1184,8 @@
   <sheetPr/>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1229,7 +1241,7 @@
         <v>50000000</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>55000000</v>
@@ -1244,7 +1256,7 @@
         <v>10</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1258,7 +1270,7 @@
         <v>5000000</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>10000000</v>
@@ -1273,7 +1285,7 @@
         <v>11</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1287,8 +1299,8 @@
   <sheetPr/>
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2289,8 +2301,8 @@
   <sheetPr/>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/config_6.8/super_treasure_server.xlsx
+++ b/config_6.8/super_treasure_server.xlsx
@@ -45,7 +45,7 @@
     <t>buy_limit_id|购买任意骰子限制</t>
   </si>
   <si>
-    <t>4,10,16,22</t>
+    <t>6,12,18,24</t>
   </si>
   <si>
     <t>prop_any_dice_1</t>
@@ -87,19 +87,19 @@
     <t>40000小游戏币</t>
   </si>
   <si>
+    <t>prop_guess_apple_bet_1</t>
+  </si>
+  <si>
+    <t>水滴道具*12</t>
+  </si>
+  <si>
+    <t>80000金币</t>
+  </si>
+  <si>
     <t>prop_super_treasure_key_1</t>
   </si>
   <si>
     <t>金钥匙</t>
-  </si>
-  <si>
-    <t>prop_guess_apple_bet_1</t>
-  </si>
-  <si>
-    <t>水滴道具*12</t>
-  </si>
-  <si>
-    <t>80000金币</t>
   </si>
   <si>
     <t>30000小游戏币</t>
@@ -164,12 +164,6 @@
     <t>20000小游戏币</t>
   </si>
   <si>
-    <t>prop_super_treasure_key_2</t>
-  </si>
-  <si>
-    <t>银钥匙</t>
-  </si>
-  <si>
     <t>水滴道具*6</t>
   </si>
   <si>
@@ -193,6 +187,12 @@
     </r>
   </si>
   <si>
+    <t>prop_super_treasure_key_2</t>
+  </si>
+  <si>
+    <t>银钥匙</t>
+  </si>
+  <si>
     <t>15000小游戏币</t>
   </si>
   <si>
@@ -232,9 +232,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -251,24 +251,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,11 +274,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -295,13 +286,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -319,9 +303,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,11 +334,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -358,14 +357,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -381,19 +373,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -404,37 +404,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,139 +554,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,69 +605,6 @@
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,8 +627,47 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,6 +682,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -714,10 +714,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -726,133 +726,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1185,7 +1185,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1297,13 +1297,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16.875" customWidth="1"/>
     <col min="3" max="3" width="20.125" customWidth="1"/>
@@ -1390,7 +1390,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:6">
+    <row r="5" ht="15" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1404,11 +1404,12 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" ht="15" spans="1:6">
       <c r="A6">
@@ -1421,13 +1422,13 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>80000</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E6">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:6">
@@ -1441,10 +1442,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>80000</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>27</v>
@@ -1490,7 +1491,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="1:6">
+    <row r="10" ht="15" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1501,14 +1502,15 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" ht="15" spans="1:6">
       <c r="A11">
@@ -1521,13 +1523,13 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:6">
@@ -1541,13 +1543,13 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>44000</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:6">
@@ -1561,13 +1563,13 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>44000</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:6">
@@ -1601,13 +1603,13 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>60000</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:6">
@@ -1621,13 +1623,13 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>60000</v>
+        <v>12</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:6">
@@ -1641,13 +1643,13 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E17">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:6">
@@ -1661,13 +1663,13 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E18">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:6">
@@ -1681,13 +1683,13 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>20000</v>
+        <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:6">
@@ -1701,13 +1703,13 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:6">
@@ -1721,13 +1723,13 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>20</v>
+        <v>40000</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:6">
@@ -1741,13 +1743,13 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E22">
-        <v>40000</v>
+        <v>12</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:6">
@@ -1761,13 +1763,13 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E23">
-        <v>12</v>
+        <v>100000</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:6">
@@ -1781,13 +1783,13 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E24">
-        <v>100000</v>
+        <v>36000</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:6">
@@ -1801,13 +1803,13 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E25">
-        <v>36000</v>
+        <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:6">
@@ -1850,7 +1852,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" ht="15" spans="1:6">
+    <row r="28" ht="15" spans="1:10">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1869,6 +1871,7 @@
       <c r="F28" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="J28" s="1"/>
     </row>
     <row r="29" ht="15" spans="1:6">
       <c r="A29">
@@ -1881,13 +1884,13 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:6">
@@ -1901,13 +1904,13 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>40000</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:6">
@@ -1921,10 +1924,10 @@
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E31">
-        <v>40000</v>
+        <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>46</v>
@@ -1981,13 +1984,13 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:6">
@@ -2001,13 +2004,13 @@
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E35">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:6">
@@ -2021,13 +2024,13 @@
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>22000</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" ht="15" spans="1:6">
@@ -2041,13 +2044,13 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E37">
-        <v>22000</v>
+        <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:6">
@@ -2081,13 +2084,13 @@
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>30000</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:6">
@@ -2101,13 +2104,13 @@
         <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E40">
-        <v>30000</v>
+        <v>6</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:6">
@@ -2121,13 +2124,13 @@
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E41">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:6">
@@ -2141,13 +2144,13 @@
         <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E42">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:6">
@@ -2161,13 +2164,13 @@
         <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E43">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:6">
@@ -2181,13 +2184,13 @@
         <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:6">
@@ -2201,13 +2204,13 @@
         <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E45">
-        <v>10</v>
+        <v>20000</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:6">
@@ -2221,13 +2224,13 @@
         <v>21</v>
       </c>
       <c r="D46" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E46">
-        <v>20000</v>
+        <v>6</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" ht="15" spans="1:6">
@@ -2241,13 +2244,13 @@
         <v>22</v>
       </c>
       <c r="D47" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E47">
-        <v>6</v>
+        <v>50000</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" ht="15" spans="1:6">
@@ -2261,13 +2264,13 @@
         <v>23</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E48">
-        <v>50000</v>
+        <v>18000</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" ht="15" spans="1:6">
@@ -2281,13 +2284,13 @@
         <v>24</v>
       </c>
       <c r="D49" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E49">
-        <v>18000</v>
+        <v>1</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
